--- a/artfynd/A 50055-2025 artfynd.xlsx
+++ b/artfynd/A 50055-2025 artfynd.xlsx
@@ -2227,10 +2227,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131273396</v>
+        <v>131273375</v>
       </c>
       <c r="B14" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2238,28 +2238,29 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>med soral</t>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -2269,10 +2270,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>546277</v>
+        <v>546088</v>
       </c>
       <c r="R14" t="n">
-        <v>6999264</v>
+        <v>6999337</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2309,7 +2310,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Rikligt med lunglav på en särskilt grov gammal sälg med 75 cm i brösthöjdsdiameter.</t>
+          <t>Ringhack, färska, på en gran nära en hyggeskant.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2318,7 +2319,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2329,27 +2329,22 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>En grovbarkad sälg med 75 cm i brösthöjdsdiameter.</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Mycket grov bark. # Salix caprea # En grovbarkad sälg med 75 cm i brösthöjdsdiameter.</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2367,7 +2362,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131275150</v>
+        <v>131275142</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -2410,10 +2405,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>546123</v>
+        <v>546139</v>
       </c>
       <c r="R15" t="n">
-        <v>6999192</v>
+        <v>6999063</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2497,7 +2492,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131275153</v>
+        <v>131275131</v>
       </c>
       <c r="B16" t="n">
         <v>57884</v>
@@ -2530,7 +2525,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -2540,10 +2535,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>546126</v>
+        <v>546445</v>
       </c>
       <c r="R16" t="n">
-        <v>6999216</v>
+        <v>6998989</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2580,7 +2575,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2627,7 +2622,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131275163</v>
+        <v>131275156</v>
       </c>
       <c r="B17" t="n">
         <v>57884</v>
@@ -2670,10 +2665,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>546096</v>
+        <v>546115</v>
       </c>
       <c r="R17" t="n">
-        <v>6999292</v>
+        <v>6999245</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2710,7 +2705,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2757,10 +2752,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131273391</v>
+        <v>131273368</v>
       </c>
       <c r="B18" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2768,28 +2763,29 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>med soral</t>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -2799,10 +2795,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>546459</v>
+        <v>546097</v>
       </c>
       <c r="R18" t="n">
-        <v>6998921</v>
+        <v>6999266</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2837,13 +2833,17 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en gran med rikt kådaflöde  vid en hyggeskant.</t>
+        </is>
+      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2854,22 +2854,17 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2887,10 +2882,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131276484</v>
+        <v>131275150</v>
       </c>
       <c r="B19" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2898,26 +2893,31 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>546500</v>
+        <v>546123</v>
       </c>
       <c r="R19" t="n">
-        <v>6998983</v>
+        <v>6999192</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2963,13 +2963,17 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en gran.</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2980,22 +2984,17 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3013,10 +3012,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131275184</v>
+        <v>131275153</v>
       </c>
       <c r="B20" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -3024,26 +3023,31 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3051,10 +3055,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>546300</v>
+        <v>546126</v>
       </c>
       <c r="R20" t="n">
-        <v>6999066</v>
+        <v>6999216</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3089,19 +3093,38 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en gran.</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3119,10 +3142,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131273421</v>
+        <v>131275163</v>
       </c>
       <c r="B21" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3130,26 +3153,31 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3157,10 +3185,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>546167</v>
+        <v>546096</v>
       </c>
       <c r="R21" t="n">
-        <v>6999264</v>
+        <v>6999292</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3195,13 +3223,17 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på gran.</t>
+        </is>
+      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3240,7 +3272,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131275192</v>
+        <v>131273391</v>
       </c>
       <c r="B22" t="n">
         <v>80350</v>
@@ -3270,7 +3302,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3278,10 +3314,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>546168</v>
+        <v>546459</v>
       </c>
       <c r="R22" t="n">
-        <v>6999218</v>
+        <v>6998921</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3366,10 +3402,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131273375</v>
+        <v>131276484</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3377,31 +3413,26 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3409,10 +3440,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>546088</v>
+        <v>546500</v>
       </c>
       <c r="R23" t="n">
-        <v>6999337</v>
+        <v>6998983</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3447,17 +3478,13 @@
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en gran nära en hyggeskant.</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3468,22 +3495,22 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3501,10 +3528,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131275142</v>
+        <v>131275184</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3512,31 +3539,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3544,10 +3566,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>546139</v>
+        <v>546300</v>
       </c>
       <c r="R24" t="n">
-        <v>6999063</v>
+        <v>6999066</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3582,38 +3604,19 @@
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en gran.</t>
-        </is>
-      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3631,10 +3634,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131275131</v>
+        <v>131273421</v>
       </c>
       <c r="B25" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3642,31 +3645,26 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3674,10 +3672,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>546445</v>
+        <v>546167</v>
       </c>
       <c r="R25" t="n">
-        <v>6998989</v>
+        <v>6999264</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3712,17 +3710,13 @@
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en gran.</t>
-        </is>
-      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3761,10 +3755,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131275156</v>
+        <v>131275192</v>
       </c>
       <c r="B26" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3772,31 +3766,26 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3804,10 +3793,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>546115</v>
+        <v>546168</v>
       </c>
       <c r="R26" t="n">
-        <v>6999245</v>
+        <v>6999218</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3842,17 +3831,13 @@
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en gran.</t>
-        </is>
-      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3863,17 +3848,22 @@
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3891,10 +3881,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131273368</v>
+        <v>131273396</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3902,29 +3892,28 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -3934,10 +3923,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>546097</v>
+        <v>546277</v>
       </c>
       <c r="R27" t="n">
-        <v>6999266</v>
+        <v>6999264</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3974,7 +3963,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran med rikt kådaflöde  vid en hyggeskant.</t>
+          <t>Rikligt med lunglav på en särskilt grov gammal sälg med 75 cm i brösthöjdsdiameter.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3983,6 +3972,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3993,17 +3983,27 @@
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>En grovbarkad sälg med 75 cm i brösthöjdsdiameter.</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Mycket grov bark. # Salix caprea # En grovbarkad sälg med 75 cm i brösthöjdsdiameter.</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -17366,10 +17366,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>131275149</v>
+        <v>131273398</v>
       </c>
       <c r="B132" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -17377,29 +17377,28 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -17409,10 +17408,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>546120</v>
+        <v>546299</v>
       </c>
       <c r="R132" t="n">
-        <v>6999185</v>
+        <v>6999243</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -17449,7 +17448,7 @@
       </c>
       <c r="AC132" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>På en flerstammig gammal sälg.</t>
         </is>
       </c>
       <c r="AD132" t="b">
@@ -17458,6 +17457,7 @@
       <c r="AE132" t="b">
         <v>0</v>
       </c>
+      <c r="AF132" t="inlineStr"/>
       <c r="AG132" t="b">
         <v>0</v>
       </c>
@@ -17468,17 +17468,22 @@
       </c>
       <c r="AJ132" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK132" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM132" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO132" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT132" t="inlineStr"/>
@@ -17496,10 +17501,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>131273398</v>
+        <v>131275125</v>
       </c>
       <c r="B133" t="n">
-        <v>80350</v>
+        <v>83225</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -17507,30 +17512,26 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
@@ -17538,10 +17539,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>546299</v>
+        <v>546375</v>
       </c>
       <c r="R133" t="n">
-        <v>6999243</v>
+        <v>6998987</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -17576,11 +17577,6 @@
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="AC133" t="inlineStr">
-        <is>
-          <t>På en flerstammig gammal sälg.</t>
-        </is>
-      </c>
       <c r="AD133" t="b">
         <v>0</v>
       </c>
@@ -17598,22 +17594,17 @@
       </c>
       <c r="AJ133" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK133" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM133" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO133" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT133" t="inlineStr"/>
@@ -17631,10 +17622,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>131275125</v>
+        <v>131273411</v>
       </c>
       <c r="B134" t="n">
-        <v>83225</v>
+        <v>79245</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -17642,21 +17633,21 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -17669,10 +17660,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>546375</v>
+        <v>546421</v>
       </c>
       <c r="R134" t="n">
-        <v>6998987</v>
+        <v>6999063</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -17705,6 +17696,11 @@
       <c r="AA134" t="inlineStr">
         <is>
           <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AC134" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD134" t="b">
@@ -17752,7 +17748,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>131273411</v>
+        <v>131273425</v>
       </c>
       <c r="B135" t="n">
         <v>79245</v>
@@ -17790,10 +17786,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>546421</v>
+        <v>546106</v>
       </c>
       <c r="R135" t="n">
-        <v>6999063</v>
+        <v>6999416</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -17830,7 +17826,7 @@
       </c>
       <c r="AC135" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD135" t="b">
@@ -17858,9 +17854,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM135" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO135" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT135" t="inlineStr"/>
@@ -17878,10 +17879,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>131273425</v>
+        <v>131275149</v>
       </c>
       <c r="B136" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -17889,26 +17890,31 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N136" t="inlineStr"/>
       <c r="P136" t="inlineStr">
         <is>
@@ -17916,10 +17922,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>546106</v>
+        <v>546120</v>
       </c>
       <c r="R136" t="n">
-        <v>6999416</v>
+        <v>6999185</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -17956,7 +17962,7 @@
       </c>
       <c r="AC136" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD136" t="b">
@@ -17965,7 +17971,6 @@
       <c r="AE136" t="b">
         <v>0</v>
       </c>
-      <c r="AF136" t="inlineStr"/>
       <c r="AG136" t="b">
         <v>0</v>
       </c>
@@ -17984,14 +17989,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM136" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO136" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT136" t="inlineStr"/>
@@ -19316,32 +19316,32 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>131275210</v>
+        <v>131275186</v>
       </c>
       <c r="B147" t="n">
-        <v>80310</v>
+        <v>80350</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>229497</v>
+        <v>6458</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -19354,10 +19354,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>546168</v>
+        <v>546206</v>
       </c>
       <c r="R147" t="n">
-        <v>6999217</v>
+        <v>6999203</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -19392,6 +19392,11 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC147" t="inlineStr">
+        <is>
+          <t>På sälg.</t>
+        </is>
+      </c>
       <c r="AD147" t="b">
         <v>0</v>
       </c>
@@ -19409,12 +19414,12 @@
       </c>
       <c r="AJ147" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK147" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM147" t="inlineStr">
@@ -19424,7 +19429,7 @@
       </c>
       <c r="AO147" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT147" t="inlineStr"/>
@@ -19442,7 +19447,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>131275186</v>
+        <v>131276485</v>
       </c>
       <c r="B148" t="n">
         <v>80350</v>
@@ -19480,10 +19485,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>546206</v>
+        <v>546409</v>
       </c>
       <c r="R148" t="n">
-        <v>6999203</v>
+        <v>6999005</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -19516,11 +19521,6 @@
       <c r="AA148" t="inlineStr">
         <is>
           <t>2026-02-22</t>
-        </is>
-      </c>
-      <c r="AC148" t="inlineStr">
-        <is>
-          <t>På sälg.</t>
         </is>
       </c>
       <c r="AD148" t="b">
@@ -19573,7 +19573,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>131276485</v>
+        <v>131275183</v>
       </c>
       <c r="B149" t="n">
         <v>80350</v>
@@ -19611,10 +19611,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>546409</v>
+        <v>546345</v>
       </c>
       <c r="R149" t="n">
-        <v>6999005</v>
+        <v>6999035</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -19662,26 +19662,6 @@
       <c r="AH149" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ149" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK149" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM149" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO149" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT149" t="inlineStr"/>
@@ -19699,10 +19679,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>131275183</v>
+        <v>131275214</v>
       </c>
       <c r="B150" t="n">
-        <v>80350</v>
+        <v>79245</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -19710,21 +19690,21 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -19737,10 +19717,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>546345</v>
+        <v>546193</v>
       </c>
       <c r="R150" t="n">
-        <v>6999035</v>
+        <v>6999241</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -19788,6 +19768,21 @@
       <c r="AH150" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ150" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK150" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO150" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT150" t="inlineStr"/>
@@ -19805,32 +19800,32 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>131275214</v>
+        <v>131275210</v>
       </c>
       <c r="B151" t="n">
-        <v>79245</v>
+        <v>80310</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6425</v>
+        <v>229497</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -19843,10 +19838,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>546193</v>
+        <v>546168</v>
       </c>
       <c r="R151" t="n">
-        <v>6999241</v>
+        <v>6999217</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -19898,17 +19893,22 @@
       </c>
       <c r="AJ151" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK151" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM151" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO151" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT151" t="inlineStr"/>

--- a/artfynd/A 50055-2025 artfynd.xlsx
+++ b/artfynd/A 50055-2025 artfynd.xlsx
@@ -4021,10 +4021,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131275176</v>
+        <v>131275191</v>
       </c>
       <c r="B28" t="n">
-        <v>75335</v>
+        <v>80350</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -4032,21 +4032,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1460</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rosa skärelav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Schismatomma pericleum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Branth &amp; Rostr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -4059,10 +4059,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>546399</v>
+        <v>546174</v>
       </c>
       <c r="R28" t="n">
-        <v>6998994</v>
+        <v>6999215</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4097,6 +4097,11 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>På asp.</t>
+        </is>
+      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
@@ -4114,12 +4119,12 @@
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
@@ -4129,7 +4134,7 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Picea abies</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4147,10 +4152,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131275175</v>
+        <v>131275201</v>
       </c>
       <c r="B29" t="n">
-        <v>75335</v>
+        <v>80350</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4158,21 +4163,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1460</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rosa skärelav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Schismatomma pericleum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Branth &amp; Rostr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -4185,10 +4190,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>546372</v>
+        <v>546222</v>
       </c>
       <c r="R29" t="n">
-        <v>6998999</v>
+        <v>6999418</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4223,11 +4228,6 @@
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>På bark av gran i äldre granskog.</t>
-        </is>
-      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
@@ -4245,12 +4245,12 @@
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4278,10 +4278,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131275206</v>
+        <v>131275178</v>
       </c>
       <c r="B30" t="n">
-        <v>78257</v>
+        <v>80350</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4289,21 +4289,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>228579</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4316,10 +4316,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>546408</v>
+        <v>546403</v>
       </c>
       <c r="R30" t="n">
-        <v>6999129</v>
+        <v>6999213</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4367,26 +4367,6 @@
       <c r="AH30" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4404,10 +4384,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131275191</v>
+        <v>131275176</v>
       </c>
       <c r="B31" t="n">
-        <v>80350</v>
+        <v>75335</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4415,21 +4395,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>1460</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosa skärelav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Schismatomma pericleum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Branth &amp; Rostr.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4442,10 +4422,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>546174</v>
+        <v>546399</v>
       </c>
       <c r="R31" t="n">
-        <v>6999215</v>
+        <v>6998994</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4480,11 +4460,6 @@
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>På asp.</t>
-        </is>
-      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
@@ -4502,12 +4477,12 @@
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
@@ -4517,7 +4492,7 @@
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4535,10 +4510,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131275201</v>
+        <v>131275175</v>
       </c>
       <c r="B32" t="n">
-        <v>80350</v>
+        <v>75335</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4546,21 +4521,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>1460</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosa skärelav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Schismatomma pericleum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Branth &amp; Rostr.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4573,10 +4548,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>546222</v>
+        <v>546372</v>
       </c>
       <c r="R32" t="n">
-        <v>6999418</v>
+        <v>6998999</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4611,6 +4586,11 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>På bark av gran i äldre granskog.</t>
+        </is>
+      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
@@ -4628,12 +4608,12 @@
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
@@ -4643,7 +4623,7 @@
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4661,10 +4641,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131275178</v>
+        <v>131275206</v>
       </c>
       <c r="B33" t="n">
-        <v>80350</v>
+        <v>78257</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4672,21 +4652,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>228579</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4699,10 +4679,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>546403</v>
+        <v>546408</v>
       </c>
       <c r="R33" t="n">
-        <v>6999213</v>
+        <v>6999129</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4750,6 +4730,26 @@
       <c r="AH33" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4767,10 +4767,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131276490</v>
+        <v>131273365</v>
       </c>
       <c r="B34" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4778,26 +4778,31 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4805,10 +4810,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>546070</v>
+        <v>546239</v>
       </c>
       <c r="R34" t="n">
-        <v>6999377</v>
+        <v>6999263</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4843,13 +4848,17 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
+        </is>
+      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4860,22 +4869,22 @@
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4893,10 +4902,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131276489</v>
+        <v>131275146</v>
       </c>
       <c r="B35" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4904,26 +4913,31 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4931,10 +4945,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>546065</v>
+        <v>546130</v>
       </c>
       <c r="R35" t="n">
-        <v>6999434</v>
+        <v>6999093</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4969,13 +4983,17 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en gran.</t>
+        </is>
+      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4986,22 +5004,17 @@
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -5019,10 +5032,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131275193</v>
+        <v>131275152</v>
       </c>
       <c r="B36" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5030,26 +5043,31 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -5057,10 +5075,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>546158</v>
+        <v>546122</v>
       </c>
       <c r="R36" t="n">
-        <v>6999223</v>
+        <v>6999205</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5097,7 +5115,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>På asp.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5106,7 +5124,6 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -5117,22 +5134,17 @@
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5150,10 +5162,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131273389</v>
+        <v>131275155</v>
       </c>
       <c r="B37" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -5161,34 +5173,42 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Bjässmyrhöjden Väst, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>546366</v>
+        <v>546116</v>
       </c>
       <c r="R37" t="n">
-        <v>6999149</v>
+        <v>6999243</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5225,7 +5245,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Rikligt på en sälg. Fertil!</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5236,6 +5256,26 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -5252,7 +5292,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131276492</v>
+        <v>131276490</v>
       </c>
       <c r="B38" t="n">
         <v>80350</v>
@@ -5290,10 +5330,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>546097</v>
+        <v>546070</v>
       </c>
       <c r="R38" t="n">
-        <v>6999346</v>
+        <v>6999377</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5378,10 +5418,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131273365</v>
+        <v>131276489</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5389,31 +5429,26 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5421,10 +5456,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>546239</v>
+        <v>546065</v>
       </c>
       <c r="R39" t="n">
-        <v>6999263</v>
+        <v>6999434</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5459,17 +5494,13 @@
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
-        </is>
-      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5480,22 +5511,22 @@
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5513,10 +5544,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131275146</v>
+        <v>131275193</v>
       </c>
       <c r="B40" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5524,31 +5555,26 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5556,10 +5582,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>546130</v>
+        <v>546158</v>
       </c>
       <c r="R40" t="n">
-        <v>6999093</v>
+        <v>6999223</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5596,7 +5622,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>På asp.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5605,6 +5631,7 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
@@ -5615,17 +5642,22 @@
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5643,10 +5675,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131275152</v>
+        <v>131273389</v>
       </c>
       <c r="B41" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5654,42 +5686,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Bjässmyrhöjden Väst, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>546122</v>
+        <v>546366</v>
       </c>
       <c r="R41" t="n">
-        <v>6999205</v>
+        <v>6999149</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5726,7 +5750,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>Rikligt på en sälg. Fertil!</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5737,26 +5761,6 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
-      </c>
-      <c r="AH41" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
@@ -5773,10 +5777,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131275155</v>
+        <v>131276492</v>
       </c>
       <c r="B42" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5784,31 +5788,26 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5816,10 +5815,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>546116</v>
+        <v>546097</v>
       </c>
       <c r="R42" t="n">
-        <v>6999243</v>
+        <v>6999346</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5854,17 +5853,13 @@
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en gran.</t>
-        </is>
-      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
       <c r="AE42" t="b">
         <v>0</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5875,17 +5870,22 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -6009,41 +6009,37 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131273381</v>
+        <v>131276487</v>
       </c>
       <c r="B44" t="n">
-        <v>80379</v>
+        <v>80350</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -6051,10 +6047,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>546353</v>
+        <v>546313</v>
       </c>
       <c r="R44" t="n">
-        <v>6999084</v>
+        <v>6999060</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6087,11 +6083,6 @@
       <c r="AA44" t="inlineStr">
         <is>
           <t>2026-02-22</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>På sälg.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6144,37 +6135,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131273426</v>
+        <v>131273381</v>
       </c>
       <c r="B45" t="n">
-        <v>79245</v>
+        <v>80379</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -6182,10 +6177,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>546172</v>
+        <v>546353</v>
       </c>
       <c r="R45" t="n">
-        <v>6999385</v>
+        <v>6999084</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6222,7 +6217,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På sälg.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6242,17 +6237,22 @@
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM45" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131273401</v>
+        <v>131275194</v>
       </c>
       <c r="B46" t="n">
         <v>80350</v>
@@ -6300,11 +6300,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -6312,10 +6308,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>546279</v>
+        <v>546153</v>
       </c>
       <c r="R46" t="n">
-        <v>6999244</v>
+        <v>6999210</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6352,7 +6348,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Rikligt med lunglav på en rakväxt grovbarkad sälg.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6372,12 +6368,12 @@
       </c>
       <c r="AJ46" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK46" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM46" t="inlineStr">
@@ -6387,7 +6383,7 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6405,10 +6401,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131273374</v>
+        <v>131273410</v>
       </c>
       <c r="B47" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6416,31 +6412,26 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -6448,10 +6439,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>546094</v>
+        <v>546342</v>
       </c>
       <c r="R47" t="n">
-        <v>6999322</v>
+        <v>6999195</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6486,17 +6477,13 @@
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en gran intill en björkhögstubbe vid en hyggeskant.</t>
-        </is>
-      </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6515,14 +6502,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM47" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6540,10 +6522,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131275151</v>
+        <v>131273426</v>
       </c>
       <c r="B48" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6551,31 +6533,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6583,10 +6560,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>546124</v>
+        <v>546172</v>
       </c>
       <c r="R48" t="n">
-        <v>6999206</v>
+        <v>6999385</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6623,7 +6600,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6632,6 +6609,7 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6670,10 +6648,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131275159</v>
+        <v>131273401</v>
       </c>
       <c r="B49" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6681,29 +6659,28 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -6713,10 +6690,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>546099</v>
+        <v>546279</v>
       </c>
       <c r="R49" t="n">
-        <v>6999277</v>
+        <v>6999244</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6753,7 +6730,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>Rikligt med lunglav på en rakväxt grovbarkad sälg.</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6762,6 +6739,7 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6772,17 +6750,22 @@
       </c>
       <c r="AJ49" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM49" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6800,10 +6783,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131276478</v>
+        <v>131273406</v>
       </c>
       <c r="B50" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6811,31 +6794,26 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6843,10 +6821,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>546058</v>
+        <v>546223</v>
       </c>
       <c r="R50" t="n">
-        <v>6999435</v>
+        <v>6999436</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6883,7 +6861,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>På en klen liten gran intill en sälg med rikligt av lunglav.</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6892,6 +6870,7 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6910,9 +6889,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM50" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6930,10 +6914,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131275139</v>
+        <v>131275213</v>
       </c>
       <c r="B51" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6941,31 +6925,26 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -6973,10 +6952,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>546151</v>
+        <v>546481</v>
       </c>
       <c r="R51" t="n">
-        <v>6999044</v>
+        <v>6998980</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -7011,17 +6990,13 @@
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en gran.</t>
-        </is>
-      </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -7060,10 +7035,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131276487</v>
+        <v>131273374</v>
       </c>
       <c r="B52" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -7071,26 +7046,31 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -7098,10 +7078,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>546313</v>
+        <v>546094</v>
       </c>
       <c r="R52" t="n">
-        <v>6999060</v>
+        <v>6999322</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -7136,13 +7116,17 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en gran intill en björkhögstubbe vid en hyggeskant.</t>
+        </is>
+      </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -7153,22 +7137,22 @@
       </c>
       <c r="AJ52" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK52" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM52" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr"/>
@@ -7186,10 +7170,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131275194</v>
+        <v>131275151</v>
       </c>
       <c r="B53" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -7197,26 +7181,31 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
@@ -7224,10 +7213,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>546153</v>
+        <v>546124</v>
       </c>
       <c r="R53" t="n">
-        <v>6999210</v>
+        <v>6999206</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -7264,7 +7253,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -7273,7 +7262,6 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -7284,22 +7272,17 @@
       </c>
       <c r="AJ53" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK53" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM53" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr"/>
@@ -7317,10 +7300,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131273410</v>
+        <v>131275159</v>
       </c>
       <c r="B54" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -7328,26 +7311,31 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -7355,10 +7343,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>546342</v>
+        <v>546099</v>
       </c>
       <c r="R54" t="n">
-        <v>6999195</v>
+        <v>6999277</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7393,13 +7381,17 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en gran.</t>
+        </is>
+      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -7438,10 +7430,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131273406</v>
+        <v>131276478</v>
       </c>
       <c r="B55" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -7449,26 +7441,31 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7476,10 +7473,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>546223</v>
+        <v>546058</v>
       </c>
       <c r="R55" t="n">
-        <v>6999436</v>
+        <v>6999435</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7516,7 +7513,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>På en klen liten gran intill en sälg med rikligt av lunglav.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7525,7 +7522,6 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
@@ -7544,14 +7540,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM55" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -7569,10 +7560,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131275213</v>
+        <v>131275139</v>
       </c>
       <c r="B56" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7580,26 +7571,31 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7607,10 +7603,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>546481</v>
+        <v>546151</v>
       </c>
       <c r="R56" t="n">
-        <v>6998980</v>
+        <v>6999044</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7645,13 +7641,17 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en gran.</t>
+        </is>
+      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
@@ -8719,10 +8719,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131275200</v>
+        <v>131273371</v>
       </c>
       <c r="B65" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -8730,26 +8730,31 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8757,10 +8762,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>546174</v>
+        <v>546089</v>
       </c>
       <c r="R65" t="n">
-        <v>6999354</v>
+        <v>6999267</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8795,13 +8800,17 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en gränssnitslad gran vid en hyggeskant. Snitslad av Rödins trä inom en avverkningsanmälan med aktivt revir för tretåig hackspett där ingen hänsyn är planerad för tretåig hackspett.</t>
+        </is>
+      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
       <c r="AE65" t="b">
         <v>0</v>
       </c>
-      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -8812,22 +8821,17 @@
       </c>
       <c r="AJ65" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK65" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM65" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr"/>
@@ -8845,7 +8849,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131273384</v>
+        <v>131275200</v>
       </c>
       <c r="B66" t="n">
         <v>80350</v>
@@ -8874,16 +8878,19 @@
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Bjässmyrhöjden Väst, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>546286</v>
+        <v>546174</v>
       </c>
       <c r="R66" t="n">
-        <v>6999257</v>
+        <v>6999354</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8918,19 +8925,40 @@
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>Fertil med apothecier på sälg.</t>
-        </is>
-      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
       <c r="AE66" t="b">
         <v>0</v>
       </c>
+      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
+      </c>
+      <c r="AH66" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ66" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK66" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM66" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO66" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Populus tremula</t>
+        </is>
       </c>
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
@@ -8947,10 +8975,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131275211</v>
+        <v>131273384</v>
       </c>
       <c r="B67" t="n">
-        <v>91830</v>
+        <v>80350</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8958,37 +8986,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>Bjässmyrhöjden Väst, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>546185</v>
+        <v>546286</v>
       </c>
       <c r="R67" t="n">
-        <v>6999135</v>
+        <v>6999257</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -9023,35 +9048,19 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>Fertil med apothecier på sälg.</t>
+        </is>
+      </c>
       <c r="AD67" t="b">
         <v>0</v>
       </c>
       <c r="AE67" t="b">
         <v>0</v>
       </c>
-      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
-      </c>
-      <c r="AH67" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ67" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK67" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO67" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
@@ -9068,10 +9077,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131273414</v>
+        <v>131275211</v>
       </c>
       <c r="B68" t="n">
-        <v>79245</v>
+        <v>91830</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -9079,26 +9088,26 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
@@ -9106,10 +9115,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>546430</v>
+        <v>546185</v>
       </c>
       <c r="R68" t="n">
-        <v>6998969</v>
+        <v>6999135</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -9189,7 +9198,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131273420</v>
+        <v>131273414</v>
       </c>
       <c r="B69" t="n">
         <v>79245</v>
@@ -9227,10 +9236,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>546204</v>
+        <v>546430</v>
       </c>
       <c r="R69" t="n">
-        <v>6999267</v>
+        <v>6998969</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -9263,11 +9272,6 @@
       <c r="AA69" t="inlineStr">
         <is>
           <t>2026-02-22</t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -9315,10 +9319,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131273386</v>
+        <v>131273420</v>
       </c>
       <c r="B70" t="n">
-        <v>80350</v>
+        <v>79245</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -9326,30 +9330,26 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
@@ -9357,10 +9357,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>546294</v>
+        <v>546204</v>
       </c>
       <c r="R70" t="n">
-        <v>6999434</v>
+        <v>6999267</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9397,7 +9397,7 @@
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>Fertil lunglav på sälg.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -9417,22 +9417,17 @@
       </c>
       <c r="AJ70" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM70" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>
@@ -9450,10 +9445,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131273416</v>
+        <v>131276481</v>
       </c>
       <c r="B71" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -9461,26 +9456,31 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
@@ -9488,10 +9488,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>546387</v>
+        <v>546070</v>
       </c>
       <c r="R71" t="n">
-        <v>6999068</v>
+        <v>6999374</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9528,7 +9528,7 @@
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -9537,7 +9537,6 @@
       <c r="AE71" t="b">
         <v>0</v>
       </c>
-      <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="b">
         <v>0</v>
       </c>
@@ -9576,7 +9575,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131273371</v>
+        <v>131273372</v>
       </c>
       <c r="B72" t="n">
         <v>57884</v>
@@ -9609,7 +9608,7 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -9622,7 +9621,7 @@
         <v>546089</v>
       </c>
       <c r="R72" t="n">
-        <v>6999267</v>
+        <v>6999297</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9659,7 +9658,7 @@
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gränssnitslad gran vid en hyggeskant. Snitslad av Rödins trä inom en avverkningsanmälan med aktivt revir för tretåig hackspett där ingen hänsyn är planerad för tretåig hackspett.</t>
+          <t>Ringhack, färska, på en gran vid en hyggeskant.</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -9686,9 +9685,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM72" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr"/>
@@ -9706,10 +9710,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131276481</v>
+        <v>131273386</v>
       </c>
       <c r="B73" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -9717,29 +9721,28 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
@@ -9749,10 +9752,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>546070</v>
+        <v>546294</v>
       </c>
       <c r="R73" t="n">
-        <v>6999374</v>
+        <v>6999434</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9789,7 +9792,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>Fertil lunglav på sälg.</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9798,6 +9801,7 @@
       <c r="AE73" t="b">
         <v>0</v>
       </c>
+      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
       </c>
@@ -9808,17 +9812,22 @@
       </c>
       <c r="AJ73" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK73" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM73" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT73" t="inlineStr"/>
@@ -9836,10 +9845,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131273372</v>
+        <v>131273416</v>
       </c>
       <c r="B74" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -9847,31 +9856,26 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
@@ -9879,10 +9883,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>546089</v>
+        <v>546387</v>
       </c>
       <c r="R74" t="n">
-        <v>6999297</v>
+        <v>6999068</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9919,7 +9923,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran vid en hyggeskant.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9928,6 +9932,7 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -9946,14 +9951,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM74" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>
@@ -17366,10 +17366,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>131273398</v>
+        <v>131275149</v>
       </c>
       <c r="B132" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -17377,28 +17377,29 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>med soral</t>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -17408,10 +17409,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>546299</v>
+        <v>546120</v>
       </c>
       <c r="R132" t="n">
-        <v>6999243</v>
+        <v>6999185</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -17448,7 +17449,7 @@
       </c>
       <c r="AC132" t="inlineStr">
         <is>
-          <t>På en flerstammig gammal sälg.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD132" t="b">
@@ -17457,7 +17458,6 @@
       <c r="AE132" t="b">
         <v>0</v>
       </c>
-      <c r="AF132" t="inlineStr"/>
       <c r="AG132" t="b">
         <v>0</v>
       </c>
@@ -17468,22 +17468,17 @@
       </c>
       <c r="AJ132" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK132" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM132" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO132" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT132" t="inlineStr"/>
@@ -17501,10 +17496,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>131275125</v>
+        <v>131273398</v>
       </c>
       <c r="B133" t="n">
-        <v>83225</v>
+        <v>80350</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -17512,26 +17507,30 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
@@ -17539,10 +17538,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>546375</v>
+        <v>546299</v>
       </c>
       <c r="R133" t="n">
-        <v>6998987</v>
+        <v>6999243</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -17577,6 +17576,11 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC133" t="inlineStr">
+        <is>
+          <t>På en flerstammig gammal sälg.</t>
+        </is>
+      </c>
       <c r="AD133" t="b">
         <v>0</v>
       </c>
@@ -17594,17 +17598,22 @@
       </c>
       <c r="AJ133" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK133" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM133" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO133" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT133" t="inlineStr"/>
@@ -17622,10 +17631,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>131273411</v>
+        <v>131275125</v>
       </c>
       <c r="B134" t="n">
-        <v>79245</v>
+        <v>83225</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -17633,21 +17642,21 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -17660,10 +17669,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>546421</v>
+        <v>546375</v>
       </c>
       <c r="R134" t="n">
-        <v>6999063</v>
+        <v>6998987</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -17696,11 +17705,6 @@
       <c r="AA134" t="inlineStr">
         <is>
           <t>2026-02-22</t>
-        </is>
-      </c>
-      <c r="AC134" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD134" t="b">
@@ -17748,7 +17752,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>131273425</v>
+        <v>131273411</v>
       </c>
       <c r="B135" t="n">
         <v>79245</v>
@@ -17786,10 +17790,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>546106</v>
+        <v>546421</v>
       </c>
       <c r="R135" t="n">
-        <v>6999416</v>
+        <v>6999063</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -17826,7 +17830,7 @@
       </c>
       <c r="AC135" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD135" t="b">
@@ -17854,14 +17858,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM135" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO135" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT135" t="inlineStr"/>
@@ -17879,10 +17878,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>131275149</v>
+        <v>131273425</v>
       </c>
       <c r="B136" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -17890,31 +17889,26 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N136" t="inlineStr"/>
       <c r="P136" t="inlineStr">
         <is>
@@ -17922,10 +17916,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>546120</v>
+        <v>546106</v>
       </c>
       <c r="R136" t="n">
-        <v>6999185</v>
+        <v>6999416</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -17962,7 +17956,7 @@
       </c>
       <c r="AC136" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD136" t="b">
@@ -17971,6 +17965,7 @@
       <c r="AE136" t="b">
         <v>0</v>
       </c>
+      <c r="AF136" t="inlineStr"/>
       <c r="AG136" t="b">
         <v>0</v>
       </c>
@@ -17989,9 +17984,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM136" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO136" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT136" t="inlineStr"/>
@@ -18009,40 +18009,39 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>131275147</v>
+        <v>131273408</v>
       </c>
       <c r="B137" t="n">
-        <v>57884</v>
+        <v>80386</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>100109</v>
+        <v>6464</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -18052,10 +18051,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>546137</v>
+        <v>546110</v>
       </c>
       <c r="R137" t="n">
-        <v>6999148</v>
+        <v>6999309</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -18092,7 +18091,7 @@
       </c>
       <c r="AC137" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>På en flerstammig gammal sälg.</t>
         </is>
       </c>
       <c r="AD137" t="b">
@@ -18101,6 +18100,7 @@
       <c r="AE137" t="b">
         <v>0</v>
       </c>
+      <c r="AF137" t="inlineStr"/>
       <c r="AG137" t="b">
         <v>0</v>
       </c>
@@ -18111,17 +18111,22 @@
       </c>
       <c r="AJ137" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK137" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM137" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO137" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT137" t="inlineStr"/>
@@ -18139,10 +18144,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>131275136</v>
+        <v>131273390</v>
       </c>
       <c r="B138" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -18150,29 +18155,28 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N138" t="inlineStr"/>
@@ -18182,10 +18186,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>546148</v>
+        <v>546420</v>
       </c>
       <c r="R138" t="n">
-        <v>6999041</v>
+        <v>6999089</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -18222,7 +18226,7 @@
       </c>
       <c r="AC138" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>Rikligt med lunglav på en grovbarkad flerstammig sälg.</t>
         </is>
       </c>
       <c r="AD138" t="b">
@@ -18231,6 +18235,7 @@
       <c r="AE138" t="b">
         <v>0</v>
       </c>
+      <c r="AF138" t="inlineStr"/>
       <c r="AG138" t="b">
         <v>0</v>
       </c>
@@ -18241,17 +18246,22 @@
       </c>
       <c r="AJ138" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK138" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM138" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO138" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Grov bark. # Salix caprea</t>
         </is>
       </c>
       <c r="AT138" t="inlineStr"/>
@@ -18269,10 +18279,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>131275138</v>
+        <v>131275203</v>
       </c>
       <c r="B139" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -18280,31 +18290,26 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
@@ -18312,10 +18317,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>546145</v>
+        <v>546227</v>
       </c>
       <c r="R139" t="n">
-        <v>6999053</v>
+        <v>6999420</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -18350,17 +18355,13 @@
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="AC139" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en gran.</t>
-        </is>
-      </c>
       <c r="AD139" t="b">
         <v>0</v>
       </c>
       <c r="AE139" t="b">
         <v>0</v>
       </c>
+      <c r="AF139" t="inlineStr"/>
       <c r="AG139" t="b">
         <v>0</v>
       </c>
@@ -18371,17 +18372,22 @@
       </c>
       <c r="AJ139" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK139" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM139" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO139" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT139" t="inlineStr"/>
@@ -18399,32 +18405,32 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>131275203</v>
+        <v>131275208</v>
       </c>
       <c r="B140" t="n">
-        <v>80350</v>
+        <v>80310</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6458</v>
+        <v>229497</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -18437,10 +18443,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>546227</v>
+        <v>546460</v>
       </c>
       <c r="R140" t="n">
-        <v>6999420</v>
+        <v>6999073</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -18492,12 +18498,12 @@
       </c>
       <c r="AJ140" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK140" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AM140" t="inlineStr">
@@ -18507,7 +18513,7 @@
       </c>
       <c r="AO140" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT140" t="inlineStr"/>
@@ -18525,39 +18531,40 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>131273408</v>
+        <v>131275147</v>
       </c>
       <c r="B141" t="n">
-        <v>80386</v>
+        <v>57884</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>6464</v>
+        <v>100109</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N141" t="inlineStr"/>
@@ -18567,10 +18574,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>546110</v>
+        <v>546137</v>
       </c>
       <c r="R141" t="n">
-        <v>6999309</v>
+        <v>6999148</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -18607,7 +18614,7 @@
       </c>
       <c r="AC141" t="inlineStr">
         <is>
-          <t>På en flerstammig gammal sälg.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD141" t="b">
@@ -18616,7 +18623,6 @@
       <c r="AE141" t="b">
         <v>0</v>
       </c>
-      <c r="AF141" t="inlineStr"/>
       <c r="AG141" t="b">
         <v>0</v>
       </c>
@@ -18627,22 +18633,17 @@
       </c>
       <c r="AJ141" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK141" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM141" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO141" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT141" t="inlineStr"/>
@@ -18660,10 +18661,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>131273390</v>
+        <v>131275136</v>
       </c>
       <c r="B142" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -18671,28 +18672,29 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>med soral</t>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
@@ -18702,10 +18704,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>546420</v>
+        <v>546148</v>
       </c>
       <c r="R142" t="n">
-        <v>6999089</v>
+        <v>6999041</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -18742,7 +18744,7 @@
       </c>
       <c r="AC142" t="inlineStr">
         <is>
-          <t>Rikligt med lunglav på en grovbarkad flerstammig sälg.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD142" t="b">
@@ -18751,7 +18753,6 @@
       <c r="AE142" t="b">
         <v>0</v>
       </c>
-      <c r="AF142" t="inlineStr"/>
       <c r="AG142" t="b">
         <v>0</v>
       </c>
@@ -18762,22 +18763,17 @@
       </c>
       <c r="AJ142" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK142" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM142" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO142" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Grov bark. # Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT142" t="inlineStr"/>
@@ -18795,37 +18791,42 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>131275208</v>
+        <v>131275138</v>
       </c>
       <c r="B143" t="n">
-        <v>80310</v>
+        <v>57884</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>229497</v>
+        <v>100109</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
@@ -18833,10 +18834,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>546460</v>
+        <v>546145</v>
       </c>
       <c r="R143" t="n">
-        <v>6999073</v>
+        <v>6999053</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -18871,13 +18872,17 @@
           <t>2026-02-22</t>
         </is>
       </c>
+      <c r="AC143" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en gran.</t>
+        </is>
+      </c>
       <c r="AD143" t="b">
         <v>0</v>
       </c>
       <c r="AE143" t="b">
         <v>0</v>
       </c>
-      <c r="AF143" t="inlineStr"/>
       <c r="AG143" t="b">
         <v>0</v>
       </c>
@@ -18888,22 +18893,17 @@
       </c>
       <c r="AJ143" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK143" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM143" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO143" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT143" t="inlineStr"/>
@@ -19316,32 +19316,32 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>131275186</v>
+        <v>131275210</v>
       </c>
       <c r="B147" t="n">
-        <v>80350</v>
+        <v>80310</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>6458</v>
+        <v>229497</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -19354,10 +19354,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>546206</v>
+        <v>546168</v>
       </c>
       <c r="R147" t="n">
-        <v>6999203</v>
+        <v>6999217</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -19392,11 +19392,6 @@
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="AC147" t="inlineStr">
-        <is>
-          <t>På sälg.</t>
-        </is>
-      </c>
       <c r="AD147" t="b">
         <v>0</v>
       </c>
@@ -19414,12 +19409,12 @@
       </c>
       <c r="AJ147" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK147" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AM147" t="inlineStr">
@@ -19429,7 +19424,7 @@
       </c>
       <c r="AO147" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT147" t="inlineStr"/>
@@ -19447,7 +19442,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>131276485</v>
+        <v>131275186</v>
       </c>
       <c r="B148" t="n">
         <v>80350</v>
@@ -19485,10 +19480,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>546409</v>
+        <v>546206</v>
       </c>
       <c r="R148" t="n">
-        <v>6999005</v>
+        <v>6999203</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -19521,6 +19516,11 @@
       <c r="AA148" t="inlineStr">
         <is>
           <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AC148" t="inlineStr">
+        <is>
+          <t>På sälg.</t>
         </is>
       </c>
       <c r="AD148" t="b">
@@ -19573,7 +19573,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>131275183</v>
+        <v>131276485</v>
       </c>
       <c r="B149" t="n">
         <v>80350</v>
@@ -19611,10 +19611,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>546345</v>
+        <v>546409</v>
       </c>
       <c r="R149" t="n">
-        <v>6999035</v>
+        <v>6999005</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -19662,6 +19662,26 @@
       <c r="AH149" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ149" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK149" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM149" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO149" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT149" t="inlineStr"/>
@@ -19679,10 +19699,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>131275214</v>
+        <v>131275183</v>
       </c>
       <c r="B150" t="n">
-        <v>79245</v>
+        <v>80350</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -19690,21 +19710,21 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -19717,10 +19737,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>546193</v>
+        <v>546345</v>
       </c>
       <c r="R150" t="n">
-        <v>6999241</v>
+        <v>6999035</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -19768,21 +19788,6 @@
       <c r="AH150" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ150" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK150" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO150" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT150" t="inlineStr"/>
@@ -19800,32 +19805,32 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>131275210</v>
+        <v>131275214</v>
       </c>
       <c r="B151" t="n">
-        <v>80310</v>
+        <v>79245</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>229497</v>
+        <v>6425</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -19838,10 +19843,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>546168</v>
+        <v>546193</v>
       </c>
       <c r="R151" t="n">
-        <v>6999217</v>
+        <v>6999241</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -19893,22 +19898,17 @@
       </c>
       <c r="AJ151" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK151" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM151" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO151" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT151" t="inlineStr"/>
